--- a/ValueSet-bc-hds-type-value-set.xlsx
+++ b/ValueSet-bc-hds-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T17:22:32+00:00</t>
+    <t>2024-05-31T18:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-hds-type-value-set.xlsx
+++ b/ValueSet-bc-hds-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T18:09:22+00:00</t>
+    <t>2024-05-31T19:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-hds-type-value-set.xlsx
+++ b/ValueSet-bc-hds-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:19:35+00:00</t>
+    <t>2024-05-31T19:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-hds-type-value-set.xlsx
+++ b/ValueSet-bc-hds-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:26:05+00:00</t>
+    <t>2024-05-31T22:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-hds-type-value-set.xlsx
+++ b/ValueSet-bc-hds-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:33+00:00</t>
+    <t>2024-05-31T22:41:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-hds-type-value-set.xlsx
+++ b/ValueSet-bc-hds-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:54+00:00</t>
+    <t>2024-06-10T23:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-hds-type-value-set.xlsx
+++ b/ValueSet-bc-hds-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T23:17:00+00:00</t>
+    <t>2024-06-11T17:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-hds-type-value-set.xlsx
+++ b/ValueSet-bc-hds-type-value-set.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T17:15:14+00:00</t>
+    <t>2024-06-11T17:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
